--- a/biology/Biologie cellulaire et moléculaire/Appareil_de_Golgi/Appareil_de_Golgi.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Appareil_de_Golgi/Appareil_de_Golgi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appareil de Golgi est un organite des cellules eucaryotes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appareil de Golgi est un organite des cellules eucaryotes.
 Il est un lieu majeur de transfert et de tri des molécules, ainsi que de synthèse des glycoprotéines et des sphingolipides. 
 Par sa position, entre le réticulum endoplasmique et la membrane plasmique, et sa fonction, il est l'intermédiaire entre la maturation et la sécrétion des protéines élaborées dans le réticulum, il régule le transport vésiculaire et poursuit et finalise les modifications post-traductionnelles des protéines comme les glycosylations, sulfatations, phosphorylations.
 Il est composé de deux faces : la face cis, face d'entrée des protéines sécrétées par le réticulum et la face trans, d'où bourgeonnent les vésicules en direction des lysosomes, du milieu extracellulaire (exocytose) ou de la membrane cytoplasmique. Ainsi on note deux types de vésicules formées par les coatmères :  les COPI (impliqués dans le transport rétrograde depuis le réseau Trans-Golgi vers le réseau Cis-Golgi, et du réseau Cis-Golgi vers le Réticulum endoplasmique), et les COPII (impliqués dans le transport antérograde des protéines du Réticulum endoplasmique rugueux vers le Cis-Golgi). On note aussi des vésicules à clathrine formées de l'association d'adaptines et de triskélions. Ces vésicules sont impliqués dans les processus d'endocytose, dans le transport des protéines depuis l'appareil de Golgi vers les lysosomes ou vers les vésicules de sécrétion.
@@ -514,7 +526,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil de Golgi fut décrit par Camillo Golgi en 1898. Il observait alors un arrangement particulier de l'appareil réticulé interne. Il nomma cet arrangement en forme de croissant le dictyosome, qui sera plus tard rebaptisé à son nom, en raison de l'importance de ses travaux. Ses recherches à l'époque ont soulevé beaucoup de controverses. La coloration qu'il utilisait pour voir l'appareil réticulé était la coloration à l'argent. Cette méthode peu spécifique laissait croire à la communauté scientifique que les dictyosomes étaient simplement des artefacts.
 </t>
@@ -547,15 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Structure
-L'appareil de Golgi est un organite intracellulaire polymorphe constitué d'un ou plusieurs dictyosomes[2], de vésicules et de canalicules. Chez l'homme il en contient de 3 à 10. Ainsi, dans certaines cellules spécialisées (cellules sécrétrices), l'appareil de golgi contient de nombreux dictyosomes.
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'appareil de Golgi est un organite intracellulaire polymorphe constitué d'un ou plusieurs dictyosomes, de vésicules et de canalicules. Chez l'homme il en contient de 3 à 10. Ainsi, dans certaines cellules spécialisées (cellules sécrétrices), l'appareil de golgi contient de nombreux dictyosomes.
 Un dictyosome est un empilement de saccules membranaires en forme d'assiette épaisse.
 L'appareil de Golgi est formé d'un empilement de vésicules aplaties. Chaque dictyosome peut être divisé en trois régions fonctionnelles différentes :
 les saccules de la face cis ou face d'entrée. C'est ici qu'arrivent les vésicules en provenance du réticulum endoplasmique ;
 les saccules de la région médiane ;
-les saccules de la face trans ou face de sortie, où les vésicules destinées à la sécrétion ou à l'exocytose terminent leur parcours.
-Composition
-Pour la membrane golgienne : les protéines constituent entre 60 et 65 % et les lipides de 35 à 40 %. C'est une composition intermédiaire entre le RE et la membrane plasmique riche en glycosyl transferase.
+les saccules de la face trans ou face de sortie, où les vésicules destinées à la sécrétion ou à l'exocytose terminent leur parcours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Appareil_de_Golgi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appareil_de_Golgi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition et structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour la membrane golgienne : les protéines constituent entre 60 et 65 % et les lipides de 35 à 40 %. C'est une composition intermédiaire entre le RE et la membrane plasmique riche en glycosyl transferase.
 La répartition des protéines et l'activité enzymatique au sein de l'appareil de golgi est diverse :
 Ainsi, les saccules trans sont riches en nucléoside diphosphatase, alors que le réseau trans est riche en phosphatase acide.
 Les différentes parties de l'appareil de Golgi sont identifiées par des colorants
@@ -566,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil de Golgi est le lieu où certaines protéines sont modifiées, notamment par glycosylation, après leur synthèse dans le réticulum au cours de la traduction des molécules d'ARNm- et de l'assemblage des protéoglycanes. 
 L'évolution des composés contenus dans le dictyosome s'effectue de la face cis (cis-golgi, contenant 70 % de protéines et 30 % de lipides) à la face trans (trans-golgi, contenant 60 % de protéines et 40 % de lipides) de celui-ci. Les protéines qui composent chacune des régions sont différentes et subissent des transformations différentes dans chaque compartiment. Il existe deux postulats quant au transport des protéines dans l'appareil de Golgi :
@@ -601,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'un des rôles majeurs de l'appareil de Golgi est lié à des phénomènes d'exocytose. Il est le point de passage obligé et régulateur du trafic vésiculaire. Il régule le nombre de vésicules allant à la membrane et participe au renouvellement membranaire. Il entraîne des modifications post-traductionnelles des protéines :
 clivage des précurseurs polypeptidiques : maturation des protéines ;
@@ -638,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sécrétion des protéines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil de Golgi assure un contrôle précis sur les protéines qui le quittent. D'abord, il s'assure que les protéines nécessaires au fonctionnement du réticulum endoplasmique seront retournées par un flux rétrograde vers ce dernier. Ces protéines sont marquées par la séquence KDEL ou KKXX selon leur fonction. Le KDEL correspond aux protéines solubles et le KKXX aux protéines membranaires. Certaines protéines comportant la séquence KKXX servent de récepteurs au KDEL et assurent ainsi le flux rétrograde des protéines à KDEL de l'appareil de Golgi vers le réticulum endoplasmique.
 Ensuite, il existe deux types de sécrétions pour les protéines dans l'appareil de Golgi. La sécrétion constitutive est généralement dirigée vers la membrane plasmique. Cette sécrétion ne nécessite aucun signal. La sécrétion contrôlée, comme son nom l'indique, nécessite un signal. Ce principe permet de contrôler l'exportation de ces protéines.
@@ -670,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Appareil_de_Golgi</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Transport golgien</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le transport antérograde des protéines du réticulum endoplasmique vers l'appareil de Golgi s'effectue par l'intermédiaire de vésicules dont le bourgeonnement s'effectue grâce aux protéine COP 2. Les transports transgolgiens, c'est-à-dire entre les saccules de l'appareil de Golgi, et les transports rétrogrades des vésicules de l'appareil de Golgi vers le réticulum endoplasmique, sont réalisés grâce aux vésicules qui bourgeonnent par l'intermédiaire protéines COP 1. Ces protéines sont des protéines de manteau (coat protein), et n'ont donc pas de rôle dans l'adressage ou le transport des vésicules, mais sont essentielles au bourgeonnement des vésicules au niveau de la membrane de l'appareil de Golgi. Le transport et surtout l'adressage de ces vésicules est assuré par les protéines de la famille SNARE. La sécrétion continue utilise des vésicules de FAPP, la sécrétion vers les rafts lipidiques elle, utilise des vésicules à cavéoline, tandis que la sécrétion régulée se fait par l'intermédiaire de vésicules recouvertes de clathrine.
 </t>
